--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>假引用次数</t>
+  </si>
+  <si>
+    <t>总查询链接</t>
+  </si>
+  <si>
+    <t>真引用次数</t>
+  </si>
+  <si>
+    <t>各引用的查询链接</t>
+  </si>
+  <si>
+    <t>Autonomic machine learning platform</t>
+  </si>
+  <si>
+    <t>When Machine Learning Meets Privacy: A Survey and Outlook</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/alldb/citing-summary/WOS:000489702000038?from=woscc&amp;type=colluid&amp;eventMode=timeCitedOnSummary</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/alldb/citing-summary/WOS:000644444900006?from=woscc&amp;type=colluid&amp;eventMode=timeCitedOnSummary</t>
+  </si>
+  <si>
+    <t>['https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001332997700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001305566500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001239529900033', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001261951100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001219793500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001194325300001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001151022200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001129414400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001085775500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001077516300001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001064559300001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001048536300002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001014587000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000895283800007', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000884470600004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000884381400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000847904900004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000822683100009', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000811249500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000783063800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000791308400006', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000743851100003', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000934720603111', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001143872700002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000747843000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000811543100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000688589100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000633324100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000631328400002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000645319300001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000600916600002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000599645300003', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000597486100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000564216100011', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000583864000008', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000583864000008', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000527277900035', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000521167900011', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:64478353', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:68253063', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:68253063', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000889339900012', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000489702000037']</t>
+  </si>
+  <si>
+    <t>['https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001293612000013', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001330865200018', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001331481800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001328314100005', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001321877200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001322070100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001323383500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001301284800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001290441900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001294807500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001294628000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001295202400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001292172200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001293357300025', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001287191500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001302691300001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001279367400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001256947800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001208566200017', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001234807100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001230057800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001228889800002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001228138100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001242383700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001226163100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001238671000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001237953600004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001196644600004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001234459200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001201886800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001186669600002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001181442700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001185647100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001329179600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001221310400009', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001202136400002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001175221000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001159490800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001098058200007', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001287308900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001334037000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001160067900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001166992300073', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001160948500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001147125800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001234440000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001166631500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001153458500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001315988900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001285860400015', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001283918100088', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001255317904017', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001255317904004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001279248600006', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001291867600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001292722500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001241509500020', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001283871100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001236958200226', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001211636900064', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001227617500055', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001215550500106', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001230490200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:89104174', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:89034393', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001214327000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001219272400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001214542600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001214653000010', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001197752700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001178133400002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001139837400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001138902700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001112449600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001310478200007', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001153007700021', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001099084800046', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001089938100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001087277500007', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001083187800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001084195700004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001045704800062', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001060584400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001064654900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001051123100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001048536300002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001042076800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001042091000035', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001033515300002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001045883400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001031493300002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001045211900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000899349300011', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001037987700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001004665900075', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001010088000002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001016912000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001014761400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001008663400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000992487900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000998199800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000967315100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001036269600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000965193900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000966125400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000947047800001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000960529400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000967320200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000965318400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001020437200017', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000941708100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000932889300001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000967574900013', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000938387900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000926964700040', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000917782600020', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000920722900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001318379200013', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001180830300015', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001166755700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001165130100043', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001156630300183', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001166680900004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:87360306', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001116715100081', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001108967900005', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001109546200004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001062819300114', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001062819300152', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001055070000242', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001027159100011', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001053857900009', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001042200300050', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:84663394', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:84566222', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001035501500017', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001040724700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001031746200033', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001030577500004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000942531300025', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001018646600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000967761200004', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000902111900009', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000917220900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000890320100010', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000899734700002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000896685900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000925181100005', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000936985600022', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000916821100010', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000934053500016', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000882208500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000882639000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000875223900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000873604900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000868021600001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000884381400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000859333000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000864455400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000860509400005', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000873913700003', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000860712200001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000957235400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000848016400003', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000839808100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000862502400003', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000832360500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000825521100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000818508600006', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000794686500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000792692200020', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000796514400002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000750286100002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000817713800016', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:91238088', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000971492200076', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:68266791', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:68660500', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:68475543', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000893219500026', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000870574400020', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001147713100029', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000877459600109', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000937026200036', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000886929000022', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000865458701078', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000750262700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000800158400001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000778770300006', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000774776400069', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001213927501035', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001215469507025', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001213811606049', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000742930000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000838537300026', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000697296500005', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000683173100001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000689062000001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000670543500003', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000660634800002', 'https://webofscience.clarivate.cn/wos/alldb/full-record/PQDT:85137196', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000768800300039', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000731139900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000758514900013', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000744461300132', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001146900400002']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +100,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,97 +422,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>假引用次数</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>总查询链接</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>真引用次数</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>各引用的查询链接</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Development of machine- learning algorithms for 90- day and one- year mortality prediction in the elderly with femoral neck fractures based on the HEALTH and FAITH trials</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://webofscience.clarivate.cn/wos/alldb/citing-summary/WOS:001053221400002?from=woscc&amp;type=colluid&amp;eventMode=timeCitedOnSummary</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001307786700001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001305917500017', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001291410700049', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001275698500001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:001178245600002']</t>
-        </is>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Recursive SVD-based Fuzzy Extreme Learning Machine</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://webofscience.clarivate.cn/wos/alldb/citing-summary/WOS:000425855100081?from=woscc&amp;type=colluid&amp;eventMode=timeCitedOnSummary</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000652938900001', 'https://webofscience.clarivate.cn/wos/alldb/full-record/WOS:000473644200012']</t>
-        </is>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>